--- a/fuentes/contenidos/grado09/guion06/SolicitudGrafica_CS_09_06_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion06/SolicitudGrafica_CS_09_06_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -589,6 +589,27 @@
       </rPr>
       <t>5 La economía y la sociedad en las décadas de 1960 y 1970 / 5.2.2 Los intentos de reforma en la Europa oriental</t>
     </r>
+  </si>
+  <si>
+    <t>IMG08</t>
+  </si>
+  <si>
+    <t>IMG09</t>
+  </si>
+  <si>
+    <t>IMG10</t>
+  </si>
+  <si>
+    <t>https://diariodeginebra.wordpress.com/tag/mayo-del-68/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/renwalters4/by-gone-era-art/</t>
+  </si>
+  <si>
+    <t>El consumo en el Estado de Bienestar</t>
+  </si>
+  <si>
+    <t>Mayo de 1968</t>
   </si>
 </sst>
 </file>
@@ -746,7 +767,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,6 +811,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,7 +1321,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1501,6 +1528,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1597,8 +1627,21 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2347,11 +2390,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2389,14 +2432,14 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="87"/>
+      <c r="F2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="15"/>
@@ -2406,12 +2449,12 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="88">
         <v>9</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="15"/>
@@ -2421,10 +2464,10 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="5"/>
       <c r="F4" s="43" t="s">
         <v>56</v>
@@ -2442,10 +2485,10 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="5"/>
       <c r="F5" s="41" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2496,12 +2539,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="17"/>
       <c r="K8" s="11"/>
       <c r="L8" s="2"/>
@@ -2594,7 +2637,7 @@
         <v>154</v>
       </c>
       <c r="C11" s="24" t="str">
-        <f t="shared" ref="C11:C16" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C11:C18" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -2628,7 +2671,7 @@
     </row>
     <row r="12" spans="1:16" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
-        <f t="shared" ref="A12:A17" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
+        <f t="shared" ref="A12:A16" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
       </c>
       <c r="B12" s="69" t="s">
@@ -2831,72 +2874,119 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>IMG08</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="24" t="str">
-        <f t="shared" ref="C17" si="5">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+    <row r="17" spans="1:11" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="112" t="str">
+        <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="13" t="str">
-        <f t="shared" ref="F17" si="6">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+      <c r="E17" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="113" t="str">
+        <f t="shared" ref="F17:F18" si="5">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_06_CO_IMG08_small</v>
       </c>
-      <c r="G17" s="13" t="str">
+      <c r="G17" s="113" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H17" s="13" t="str">
+      <c r="H17" s="113" t="str">
         <f>IF(G17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="I17" s="13" t="str">
+      <c r="I17" s="113" t="str">
         <f>IF(H17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="114" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="115" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="110" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D18" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="113" t="str">
+        <f t="shared" si="5"/>
+        <v>CS_09_06_CO_IMG09_small</v>
+      </c>
+      <c r="G18" s="113" t="str">
+        <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H18" s="113" t="str">
+        <f>IF(G18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="I18" s="113" t="str">
+        <f>IF(H18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="J18" s="114" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="24" t="str">
+        <f t="shared" ref="C19" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="13" t="str">
+        <f t="shared" ref="F19" si="7">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I19="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_09_06_CO_IMG10_small</v>
+      </c>
+      <c r="G19" s="13" t="str">
+        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H19" s="13" t="str">
+        <f>IF(G19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="I19" s="13" t="str">
+        <f>IF(H19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="K17" s="109" t="s">
+      <c r="K19" s="78" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
@@ -2909,12 +2999,12 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="67"/>
-      <c r="C21" s="74"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="75"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -2935,14 +3025,14 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="72"/>
       <c r="B23" s="67"/>
       <c r="C23" s="74"/>
       <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -2955,7 +3045,7 @@
       <c r="B24" s="67"/>
       <c r="C24" s="74"/>
       <c r="D24" s="75"/>
-      <c r="E24" s="13"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -2981,7 +3071,7 @@
       <c r="B26" s="67"/>
       <c r="C26" s="74"/>
       <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -3015,12 +3105,12 @@
       <c r="J28" s="13"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+    <row r="29" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="72"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -3028,12 +3118,12 @@
       <c r="J29" s="13"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+    <row r="30" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="72"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -3160,8 +3250,8 @@
     </row>
     <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -3173,8 +3263,8 @@
     </row>
     <row r="41" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -3632,22 +3722,10 @@
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
-      <c r="F76" s="13" t="str">
-        <f t="shared" ref="F76:F86" si="7">IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE($C$7,"_",$A76,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I76="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
-      </c>
-      <c r="G76" s="13" t="str">
-        <f>IF(F76&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H76" s="13" t="str">
-        <f t="shared" ref="H76:H86" si="8">IF(I76&lt;&gt;"",IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE($C$7,"_",$A76,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="I76" s="13" t="str">
-        <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
       <c r="J76" s="13"/>
       <c r="K76" s="14"/>
     </row>
@@ -3657,22 +3735,10 @@
       <c r="C77" s="12"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
-      <c r="F77" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G77" s="13" t="str">
-        <f>IF(F77&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H77" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I77" s="13" t="str">
-        <f>IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
       <c r="J77" s="13"/>
       <c r="K77" s="14"/>
     </row>
@@ -3683,7 +3749,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F78:F88" si="8">IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),CONCATENATE($C$7,"_",$A78,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I78="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G78" s="13" t="str">
@@ -3691,7 +3757,7 @@
         <v/>
       </c>
       <c r="H78" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H78:H88" si="9">IF(I78&lt;&gt;"",IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),CONCATENATE($C$7,"_",$A78,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I78" s="13" t="str">
@@ -3708,7 +3774,7 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G79" s="13" t="str">
@@ -3716,7 +3782,7 @@
         <v/>
       </c>
       <c r="H79" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I79" s="13" t="str">
@@ -3733,7 +3799,7 @@
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G80" s="13" t="str">
@@ -3741,7 +3807,7 @@
         <v/>
       </c>
       <c r="H80" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I80" s="13" t="str">
@@ -3758,7 +3824,7 @@
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G81" s="13" t="str">
@@ -3766,7 +3832,7 @@
         <v/>
       </c>
       <c r="H81" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I81" s="13" t="str">
@@ -3783,7 +3849,7 @@
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G82" s="13" t="str">
@@ -3791,7 +3857,7 @@
         <v/>
       </c>
       <c r="H82" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I82" s="13" t="str">
@@ -3808,7 +3874,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G83" s="13" t="str">
@@ -3816,7 +3882,7 @@
         <v/>
       </c>
       <c r="H83" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I83" s="13" t="str">
@@ -3833,7 +3899,7 @@
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G84" s="13" t="str">
@@ -3841,7 +3907,7 @@
         <v/>
       </c>
       <c r="H84" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I84" s="13" t="str">
@@ -3858,7 +3924,7 @@
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G85" s="13" t="str">
@@ -3866,7 +3932,7 @@
         <v/>
       </c>
       <c r="H85" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I85" s="13" t="str">
@@ -3883,7 +3949,7 @@
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G86" s="13" t="str">
@@ -3891,7 +3957,7 @@
         <v/>
       </c>
       <c r="H86" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I86" s="13" t="str">
@@ -3900,6 +3966,56 @@
       </c>
       <c r="J86" s="13"/>
       <c r="K86" s="14"/>
+    </row>
+    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G87" s="13" t="str">
+        <f>IF(F87&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H87" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I87" s="13" t="str">
+        <f>IF(OR(B87&lt;&gt;"",J87&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J87" s="13"/>
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G88" s="13" t="str">
+        <f>IF(F88&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H88" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I88" s="13" t="str">
+        <f>IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J88" s="13"/>
+      <c r="K88" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3941,10 +4057,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E88">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D88">
       <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3956,10 +4072,12 @@
     <hyperlink ref="B14" r:id="rId5" location="/cuaderno-estudio?UnidadID=364"/>
     <hyperlink ref="B15" r:id="rId6" location="/cuaderno-estudio?UnidadID=364"/>
     <hyperlink ref="B16" r:id="rId7" location="/cuaderno-estudio?UnidadID=364"/>
-    <hyperlink ref="B17" r:id="rId8" location="/cuaderno-estudio?UnidadID=364"/>
+    <hyperlink ref="B19" r:id="rId8" location="/cuaderno-estudio?UnidadID=364"/>
+    <hyperlink ref="B18" r:id="rId9"/>
+    <hyperlink ref="B17" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId11"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3989,25 +4107,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -4015,11 +4133,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="36"/>
       <c r="H3" s="26" t="s">
         <v>19</v>
@@ -4070,11 +4188,11 @@
       <c r="C5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="106" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="36"/>
       <c r="H5" s="26" t="s">
         <v>23</v>
@@ -4119,12 +4237,12 @@
       <c r="C7" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="H7" s="26" t="s">
         <v>25</v>
       </c>
@@ -4218,14 +4336,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="I13" s="26" t="s">
         <v>34</v>
       </c>
@@ -4258,12 +4376,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="J15" s="26">
         <v>12</v>
       </c>
@@ -4303,12 +4421,12 @@
       <c r="C17" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="100" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="J17" s="26">
         <v>14</v>
       </c>
@@ -4324,12 +4442,12 @@
       <c r="C18" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="J18" s="26">
         <v>15</v>
       </c>
@@ -4720,41 +4838,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="45" t="s">
         <v>66</v>
       </c>
